--- a/exemplos_tutorial_quimica_nova/exemplo3.xlsx
+++ b/exemplos_tutorial_quimica_nova/exemplo3.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist23\exemplos_tutorial_quimica_nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F91C16-9637-40CC-958D-6873477E461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3FEC5A-A509-4C12-BDFF-37403B4E3BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>v1</t>
   </si>
@@ -40,6 +48,24 @@
   </si>
   <si>
     <t>v2 real</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>b22</t>
+  </si>
+  <si>
+    <t>b12</t>
   </si>
 </sst>
 </file>
@@ -357,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +407,26 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.86599999999999999</v>
       </c>
@@ -398,8 +442,31 @@
       <c r="E2">
         <v>367</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2</f>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H2">
+        <f>C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <f>G2^2</f>
+        <v>0.74995599999999996</v>
+      </c>
+      <c r="J2">
+        <f>H2^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="K2">
+        <f>G2*H2</f>
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.86599999999999999</v>
       </c>
@@ -415,8 +482,31 @@
       <c r="E3">
         <v>660</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="0">A3</f>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="1">C3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="2">G3^2</f>
+        <v>0.74995599999999996</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="3">H3^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="4">G3*H3</f>
+        <v>-0.433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -432,8 +522,31 @@
       <c r="E4">
         <v>762</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.86599999999999999</v>
       </c>
@@ -449,8 +562,31 @@
       <c r="E5">
         <v>787</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.74995599999999996</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.86599999999999999</v>
       </c>
@@ -466,8 +602,31 @@
       <c r="E6">
         <v>434</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.74995599999999996</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>-0.433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -483,8 +642,31 @@
       <c r="E7">
         <v>167</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -500,8 +682,31 @@
       <c r="E8">
         <v>651</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -517,8 +722,31 @@
       <c r="E9">
         <v>643</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -533,6 +761,29 @@
       </c>
       <c r="E10">
         <v>652</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exemplos_tutorial_quimica_nova/exemplo3.xlsx
+++ b/exemplos_tutorial_quimica_nova/exemplo3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist23\exemplos_tutorial_quimica_nova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documentos\UFSCar\TCC\playlist24\exemplos_tutorial_quimica_nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3FEC5A-A509-4C12-BDFF-37403B4E3BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3128E-0CE6-4439-83EF-5A1E442177AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,13 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
